--- a/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
+++ b/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
@@ -445,6 +445,9 @@
       <c r="C2" t="str">
         <v>1_白洋桔梗_White Lisianthus_Eustoma Salisb.</v>
       </c>
+      <c r="F2" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -502,8 +505,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>01</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
+++ b/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
@@ -446,7 +446,7 @@
         <v>1_白洋桔梗_White Lisianthus_Eustoma Salisb.</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -506,7 +506,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01</v>
+        <v>018</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
+++ b/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,12 +446,17 @@
         <v>1_白洋桔梗_White Lisianthus_Eustoma Salisb.</v>
       </c>
       <c r="F2" t="str">
-        <v>18</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -506,7 +511,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>018</v>
+        <v>01800</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
+++ b/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
@@ -453,6 +453,9 @@
       <c r="C3" t="str">
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
+      <c r="F3" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -511,7 +514,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01800</v>
+        <v>01801</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
+++ b/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,12 +454,17 @@
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -514,7 +519,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01801</v>
+        <v>01801200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
+++ b/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
@@ -459,7 +459,7 @@
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+        <v>15_深紫洋桔梗_Dark Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
+++ b/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
@@ -461,6 +461,9 @@
       <c r="C4" t="str">
         <v>15_深紫洋桔梗_Dark Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -519,7 +522,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01801200</v>
+        <v>01801201</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
+++ b/DateBase/orders/Kanara Greens and Flowers Trading_2024-9-24.xlsx
@@ -462,7 +462,7 @@
         <v>15_深紫洋桔梗_Dark Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +522,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01801201</v>
+        <v>0180120120</v>
       </c>
     </row>
   </sheetData>
